--- a/graph_plotting/Data_Input_Graph_Plotting.xlsx
+++ b/graph_plotting/Data_Input_Graph_Plotting.xlsx
@@ -8,35 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkuehn\git\bs_Twitch\graph_plotting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541C7045-9A2D-4DD1-8D18-03B7AC4001D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEC508B-A74D-41EA-81E6-FE3D77157AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6394" yWindow="4431" windowWidth="24686" windowHeight="13260" tabRatio="947" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Alternative_Input" sheetId="6" r:id="rId1"/>
-    <sheet name="Compare FimWs" sheetId="22" r:id="rId2"/>
-    <sheet name="WTs Jenal Persat" sheetId="21" r:id="rId3"/>
-    <sheet name="All fliC" sheetId="20" r:id="rId4"/>
-    <sheet name="G- GH- chpA- cpdA-" sheetId="19" r:id="rId5"/>
-    <sheet name="FimX HDE" sheetId="18" r:id="rId6"/>
-    <sheet name="mNG_PilH_D52E" sheetId="17" r:id="rId7"/>
-    <sheet name="chpA- vs pilG-" sheetId="16" r:id="rId8"/>
-    <sheet name="CheA_mNG D52E" sheetId="15" r:id="rId9"/>
-    <sheet name="Alternative_Input (5)" sheetId="14" r:id="rId10"/>
-    <sheet name="Alternative_Input (4)" sheetId="13" r:id="rId11"/>
-    <sheet name="Alternative_Input (3)" sheetId="12" r:id="rId12"/>
-    <sheet name="Alternative_Input (osc FimX ma)" sheetId="11" r:id="rId13"/>
-    <sheet name="Alternative_Input (2)" sheetId="10" r:id="rId14"/>
-    <sheet name="Alternative_Input (FimX FimW)" sheetId="9" r:id="rId15"/>
-    <sheet name="Alternative_Input (FimX osc)" sheetId="8" r:id="rId16"/>
-    <sheet name="Alternative_Input ALL mNG-PilG" sheetId="7" r:id="rId17"/>
+    <sheet name="Alternative_Input (6)" sheetId="23" r:id="rId1"/>
+    <sheet name="Alternative_Input" sheetId="6" r:id="rId2"/>
+    <sheet name="Compare FimWs" sheetId="22" r:id="rId3"/>
+    <sheet name="WTs Jenal Persat" sheetId="21" r:id="rId4"/>
+    <sheet name="All fliC" sheetId="20" r:id="rId5"/>
+    <sheet name="G- GH- chpA- cpdA-" sheetId="19" r:id="rId6"/>
+    <sheet name="FimX HDE" sheetId="18" r:id="rId7"/>
+    <sheet name="mNG_PilH_D52E" sheetId="17" r:id="rId8"/>
+    <sheet name="chpA- vs pilG-" sheetId="16" r:id="rId9"/>
+    <sheet name="CheA_mNG D52E" sheetId="15" r:id="rId10"/>
+    <sheet name="Alternative_Input (5)" sheetId="14" r:id="rId11"/>
+    <sheet name="Alternative_Input (4)" sheetId="13" r:id="rId12"/>
+    <sheet name="Alternative_Input (3)" sheetId="12" r:id="rId13"/>
+    <sheet name="Alternative_Input (osc FimX ma)" sheetId="11" r:id="rId14"/>
+    <sheet name="Alternative_Input (2)" sheetId="10" r:id="rId15"/>
+    <sheet name="Alternative_Input (FimX FimW)" sheetId="9" r:id="rId16"/>
+    <sheet name="Alternative_Input (FimX osc)" sheetId="8" r:id="rId17"/>
+    <sheet name="Alternative_Input ALL mNG-PilG" sheetId="7" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="35">
   <si>
     <t>923 fliC- mNG_PilG</t>
   </si>
@@ -988,11 +989,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04DCF00-92F5-4BE4-99BB-9BA50807F601}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30404F98-0604-42A7-B6FB-417C8EF66125}">
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection sqref="A1:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1004,80 +1005,443 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="4">
-        <v>20220726</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3">
+        <v>20200909</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="4">
-        <v>20220804</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>20201008</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="4">
-        <v>20220726</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>20210706</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="4">
-        <v>20220804</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>20210709</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="4">
-        <v>20220726</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>20210715</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="4">
-        <v>20220728</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20210722</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="4">
-        <v>20220729</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>20210728</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>20210810</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3">
+        <v>20200909</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3">
+        <v>20201008</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3">
+        <v>20210706</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3">
+        <v>20210709</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1">
+        <v>20210715</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1">
+        <v>20210722</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1">
+        <v>20210728</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1">
+        <v>20210810</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="6">
+        <v>20200908</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="6">
+        <v>20200908</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="6">
+        <v>20201027</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="6">
+        <v>20201027</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>20201029</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>20201029</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="6">
+        <v>20200909</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="6">
+        <v>20200909</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="6">
+        <v>20201008</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="6">
+        <v>20201008</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="3">
+        <v>20210715</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="3">
+        <v>20210715</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="3">
+        <v>20210722</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="3">
+        <v>20210722</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="3">
+        <v>20210706</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="3">
+        <v>20210706</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="3">
+        <v>20210709</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="3">
+        <v>20210709</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="3">
+        <v>20210722</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="3">
+        <v>20210722</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="3">
+        <v>20210715</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="3">
+        <v>20210715</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="3">
+        <v>20210722</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="3">
+        <v>20210722</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1087,6 +1451,159 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79144628-DE4A-49A5-B624-B5F2FCCFC346}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="29.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.84375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3">
+        <v>20211203</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3">
+        <v>20211203</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3">
+        <v>20210519</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
+        <v>20210519</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3">
+        <v>20210603</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11"/>
+      <c r="B11" s="4"/>
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12"/>
+      <c r="B12" s="4"/>
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13"/>
+      <c r="B13" s="4"/>
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14"/>
+      <c r="B14" s="4"/>
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15"/>
+      <c r="B15" s="4"/>
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16"/>
+      <c r="B16" s="4"/>
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17"/>
+      <c r="B17" s="4"/>
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18"/>
+      <c r="B18" s="4"/>
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19"/>
+      <c r="B19" s="4"/>
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20"/>
+      <c r="B20" s="4"/>
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21"/>
+      <c r="B21" s="4"/>
+      <c r="C21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD72AB7-3E5C-430B-853E-1C7998E1824C}">
   <dimension ref="A1:C31"/>
   <sheetViews>
@@ -1449,7 +1966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A3BCB8-B388-4F13-ADC2-E443C44CD6AB}">
   <dimension ref="A1:C30"/>
   <sheetViews>
@@ -1741,7 +2258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B9A4B9-8D2E-4D45-9ED6-50B3A6A83910}">
   <dimension ref="A1:C30"/>
   <sheetViews>
@@ -1923,7 +2440,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065D6EE3-D996-4F5E-A170-6B08BFBF8305}">
   <dimension ref="A1:C30"/>
   <sheetViews>
@@ -2275,7 +2792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7C2ABD-3B89-4914-B003-977369AA881D}">
   <dimension ref="A1:C30"/>
   <sheetViews>
@@ -2627,7 +3144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9986E60-FC9F-4228-B6F7-F912BCD1B551}">
   <dimension ref="A1:C29"/>
   <sheetViews>
@@ -2800,7 +3317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48FA2BD-3F18-4AC9-B79B-D343837B5E2D}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -2998,7 +3515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3780089A-3929-41A5-8799-261F1091CD93}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -3131,6 +3648,105 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04DCF00-92F5-4BE4-99BB-9BA50807F601}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="29.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.84375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="4">
+        <v>20220726</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="4">
+        <v>20220804</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="4">
+        <v>20220726</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="4">
+        <v>20220804</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="4">
+        <v>20220726</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="4">
+        <v>20220728</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="4">
+        <v>20220729</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E79CF4B-48F1-4F7D-97E2-09D77EAEEA3F}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -3199,7 +3815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA7127D-5067-4D06-99FF-A07762B7CF33}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -3268,7 +3884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E72D4B-E935-418C-9DE3-A7859F76A101}">
   <dimension ref="A1:C36"/>
   <sheetViews>
@@ -3632,7 +4248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E58939D-4D24-4A31-B507-5B0419D37D8F}">
   <dimension ref="A1:C36"/>
   <sheetViews>
@@ -4020,12 +4636,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D863D082-A1C1-4D0C-877A-1AA6280832AA}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD30"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A19" sqref="A1:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4482,7 +5098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F15E32-8E65-4DE5-ACAA-2E5056FF4EC6}">
   <dimension ref="A1:C29"/>
   <sheetViews>
@@ -4674,7 +5290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFEA5D7-6273-489B-80C7-6141521EE06B}">
   <dimension ref="A1:C29"/>
   <sheetViews>
@@ -4865,157 +5481,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79144628-DE4A-49A5-B624-B5F2FCCFC346}">
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="29.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.84375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="3">
-        <v>20211203</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3">
-        <v>20211203</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3">
-        <v>20210519</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3">
-        <v>20210519</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3">
-        <v>20210603</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11"/>
-      <c r="B11" s="4"/>
-      <c r="C11"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12"/>
-      <c r="B12" s="4"/>
-      <c r="C12"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13"/>
-      <c r="B13" s="4"/>
-      <c r="C13"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14"/>
-      <c r="B14" s="4"/>
-      <c r="C14"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15"/>
-      <c r="B15" s="4"/>
-      <c r="C15"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16"/>
-      <c r="B16" s="4"/>
-      <c r="C16"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17"/>
-      <c r="B17" s="4"/>
-      <c r="C17"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18"/>
-      <c r="B18" s="4"/>
-      <c r="C18"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19"/>
-      <c r="B19" s="4"/>
-      <c r="C19"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20"/>
-      <c r="B20" s="4"/>
-      <c r="C20"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21"/>
-      <c r="B21" s="4"/>
-      <c r="C21"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/graph_plotting/Data_Input_Graph_Plotting.xlsx
+++ b/graph_plotting/Data_Input_Graph_Plotting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkuehn\git\bs_Twitch\graph_plotting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDFA28D-78A8-4D5B-B672-FE379A6A4941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C6C4BE-2D95-4F68-8C13-CFA53975BB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6394" yWindow="4431" windowWidth="24686" windowHeight="13260" tabRatio="947" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5589" yWindow="3077" windowWidth="24685" windowHeight="13260" tabRatio="947" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alternative_Input" sheetId="6" r:id="rId1"/>

--- a/graph_plotting/Data_Input_Graph_Plotting.xlsx
+++ b/graph_plotting/Data_Input_Graph_Plotting.xlsx
@@ -8,35 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkuehn\git\bs_Twitch\graph_plotting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C6C4BE-2D95-4F68-8C13-CFA53975BB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3119CFF4-4187-437B-9EB4-51BC008C4007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5589" yWindow="3077" windowWidth="24685" windowHeight="13260" tabRatio="947" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alternative_Input" sheetId="6" r:id="rId1"/>
-    <sheet name="Compare FimWs" sheetId="22" r:id="rId2"/>
-    <sheet name="WTs Jenal Persat" sheetId="21" r:id="rId3"/>
-    <sheet name="All fliC" sheetId="20" r:id="rId4"/>
-    <sheet name="G- GH- chpA- cpdA-" sheetId="19" r:id="rId5"/>
-    <sheet name="FimX HDE" sheetId="18" r:id="rId6"/>
-    <sheet name="mNG_PilH_D52E" sheetId="17" r:id="rId7"/>
-    <sheet name="chpA- vs pilG-" sheetId="16" r:id="rId8"/>
-    <sheet name="CheA_mNG D52E" sheetId="15" r:id="rId9"/>
-    <sheet name="Alternative_Input (5)" sheetId="14" r:id="rId10"/>
-    <sheet name="Alternative_Input (4)" sheetId="13" r:id="rId11"/>
-    <sheet name="Alternative_Input (3)" sheetId="12" r:id="rId12"/>
-    <sheet name="Alternative_Input (osc FimX ma)" sheetId="11" r:id="rId13"/>
-    <sheet name="Alternative_Input (2)" sheetId="10" r:id="rId14"/>
-    <sheet name="Alternative_Input (FimX FimW)" sheetId="9" r:id="rId15"/>
-    <sheet name="Alternative_Input (FimX osc)" sheetId="8" r:id="rId16"/>
-    <sheet name="Alternative_Input ALL mNG-PilG" sheetId="7" r:id="rId17"/>
+    <sheet name="Alternative_Input (6)" sheetId="23" r:id="rId2"/>
+    <sheet name="Compare FimWs" sheetId="22" r:id="rId3"/>
+    <sheet name="WTs Jenal Persat" sheetId="21" r:id="rId4"/>
+    <sheet name="All fliC" sheetId="20" r:id="rId5"/>
+    <sheet name="G- GH- chpA- cpdA-" sheetId="19" r:id="rId6"/>
+    <sheet name="FimX HDE" sheetId="18" r:id="rId7"/>
+    <sheet name="mNG_PilH_D52E" sheetId="17" r:id="rId8"/>
+    <sheet name="chpA- vs pilG-" sheetId="16" r:id="rId9"/>
+    <sheet name="CheA_mNG D52E" sheetId="15" r:id="rId10"/>
+    <sheet name="Alternative_Input (5)" sheetId="14" r:id="rId11"/>
+    <sheet name="Alternative_Input (4)" sheetId="13" r:id="rId12"/>
+    <sheet name="Alternative_Input (3)" sheetId="12" r:id="rId13"/>
+    <sheet name="Alternative_Input (osc FimX ma)" sheetId="11" r:id="rId14"/>
+    <sheet name="Alternative_Input (2)" sheetId="10" r:id="rId15"/>
+    <sheet name="Alternative_Input (FimX FimW)" sheetId="9" r:id="rId16"/>
+    <sheet name="Alternative_Input (FimX osc)" sheetId="8" r:id="rId17"/>
+    <sheet name="Alternative_Input ALL mNG-PilG" sheetId="7" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="35">
   <si>
     <t>923 fliC- mNG_PilG</t>
   </si>
@@ -992,7 +993,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1087,6 +1088,159 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79144628-DE4A-49A5-B624-B5F2FCCFC346}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="29.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.84375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3">
+        <v>20211203</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3">
+        <v>20211203</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3">
+        <v>20210519</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
+        <v>20210519</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3">
+        <v>20210603</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11"/>
+      <c r="B11" s="4"/>
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12"/>
+      <c r="B12" s="4"/>
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13"/>
+      <c r="B13" s="4"/>
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14"/>
+      <c r="B14" s="4"/>
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15"/>
+      <c r="B15" s="4"/>
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16"/>
+      <c r="B16" s="4"/>
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17"/>
+      <c r="B17" s="4"/>
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18"/>
+      <c r="B18" s="4"/>
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19"/>
+      <c r="B19" s="4"/>
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20"/>
+      <c r="B20" s="4"/>
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21"/>
+      <c r="B21" s="4"/>
+      <c r="C21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD72AB7-3E5C-430B-853E-1C7998E1824C}">
   <dimension ref="A1:C31"/>
   <sheetViews>
@@ -1449,7 +1603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A3BCB8-B388-4F13-ADC2-E443C44CD6AB}">
   <dimension ref="A1:C30"/>
   <sheetViews>
@@ -1741,7 +1895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B9A4B9-8D2E-4D45-9ED6-50B3A6A83910}">
   <dimension ref="A1:C30"/>
   <sheetViews>
@@ -1923,7 +2077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065D6EE3-D996-4F5E-A170-6B08BFBF8305}">
   <dimension ref="A1:C30"/>
   <sheetViews>
@@ -2275,7 +2429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7C2ABD-3B89-4914-B003-977369AA881D}">
   <dimension ref="A1:C30"/>
   <sheetViews>
@@ -2627,7 +2781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9986E60-FC9F-4228-B6F7-F912BCD1B551}">
   <dimension ref="A1:C29"/>
   <sheetViews>
@@ -2800,7 +2954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48FA2BD-3F18-4AC9-B79B-D343837B5E2D}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -2998,7 +3152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3780089A-3929-41A5-8799-261F1091CD93}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -3131,6 +3285,64 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E5925C-59BE-4746-A2F1-7DF2FD84476F}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="29.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.84375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="4">
+        <v>20220726</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2"/>
+      <c r="B2" s="4"/>
+      <c r="C2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3"/>
+      <c r="B3" s="4"/>
+      <c r="C3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4"/>
+      <c r="B4" s="4"/>
+      <c r="C4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5"/>
+      <c r="B5" s="4"/>
+      <c r="C5"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6"/>
+      <c r="B6" s="4"/>
+      <c r="C6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E79CF4B-48F1-4F7D-97E2-09D77EAEEA3F}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -3199,7 +3411,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA7127D-5067-4D06-99FF-A07762B7CF33}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -3268,7 +3480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E72D4B-E935-418C-9DE3-A7859F76A101}">
   <dimension ref="A1:C36"/>
   <sheetViews>
@@ -3632,7 +3844,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E58939D-4D24-4A31-B507-5B0419D37D8F}">
   <dimension ref="A1:C36"/>
   <sheetViews>
@@ -4020,7 +4232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D863D082-A1C1-4D0C-877A-1AA6280832AA}">
   <dimension ref="A1:C40"/>
   <sheetViews>
@@ -4482,7 +4694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F15E32-8E65-4DE5-ACAA-2E5056FF4EC6}">
   <dimension ref="A1:C29"/>
   <sheetViews>
@@ -4674,7 +4886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFEA5D7-6273-489B-80C7-6141521EE06B}">
   <dimension ref="A1:C29"/>
   <sheetViews>
@@ -4865,157 +5077,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79144628-DE4A-49A5-B624-B5F2FCCFC346}">
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="29.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.84375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="3">
-        <v>20211203</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3">
-        <v>20211203</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3">
-        <v>20210519</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3">
-        <v>20210519</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3">
-        <v>20210603</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11"/>
-      <c r="B11" s="4"/>
-      <c r="C11"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12"/>
-      <c r="B12" s="4"/>
-      <c r="C12"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13"/>
-      <c r="B13" s="4"/>
-      <c r="C13"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14"/>
-      <c r="B14" s="4"/>
-      <c r="C14"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15"/>
-      <c r="B15" s="4"/>
-      <c r="C15"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16"/>
-      <c r="B16" s="4"/>
-      <c r="C16"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17"/>
-      <c r="B17" s="4"/>
-      <c r="C17"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18"/>
-      <c r="B18" s="4"/>
-      <c r="C18"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19"/>
-      <c r="B19" s="4"/>
-      <c r="C19"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20"/>
-      <c r="B20" s="4"/>
-      <c r="C20"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21"/>
-      <c r="B21" s="4"/>
-      <c r="C21"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/graph_plotting/Data_Input_Graph_Plotting.xlsx
+++ b/graph_plotting/Data_Input_Graph_Plotting.xlsx
@@ -8,36 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkuehn\git\bs_Twitch\graph_plotting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3119CFF4-4187-437B-9EB4-51BC008C4007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12130F42-ADB6-4569-B539-DD58452E8727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5589" yWindow="3077" windowWidth="24685" windowHeight="13260" tabRatio="947" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4671" yWindow="1594" windowWidth="24686" windowHeight="14735" tabRatio="947" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alternative_Input" sheetId="6" r:id="rId1"/>
-    <sheet name="Alternative_Input (6)" sheetId="23" r:id="rId2"/>
-    <sheet name="Compare FimWs" sheetId="22" r:id="rId3"/>
-    <sheet name="WTs Jenal Persat" sheetId="21" r:id="rId4"/>
-    <sheet name="All fliC" sheetId="20" r:id="rId5"/>
-    <sheet name="G- GH- chpA- cpdA-" sheetId="19" r:id="rId6"/>
-    <sheet name="FimX HDE" sheetId="18" r:id="rId7"/>
-    <sheet name="mNG_PilH_D52E" sheetId="17" r:id="rId8"/>
-    <sheet name="chpA- vs pilG-" sheetId="16" r:id="rId9"/>
-    <sheet name="CheA_mNG D52E" sheetId="15" r:id="rId10"/>
-    <sheet name="Alternative_Input (5)" sheetId="14" r:id="rId11"/>
-    <sheet name="Alternative_Input (4)" sheetId="13" r:id="rId12"/>
-    <sheet name="Alternative_Input (3)" sheetId="12" r:id="rId13"/>
-    <sheet name="Alternative_Input (osc FimX ma)" sheetId="11" r:id="rId14"/>
-    <sheet name="Alternative_Input (2)" sheetId="10" r:id="rId15"/>
-    <sheet name="Alternative_Input (FimX FimW)" sheetId="9" r:id="rId16"/>
-    <sheet name="Alternative_Input (FimX osc)" sheetId="8" r:id="rId17"/>
-    <sheet name="Alternative_Input ALL mNG-PilG" sheetId="7" r:id="rId18"/>
+    <sheet name="FimW double Jenal Fluo" sheetId="25" r:id="rId2"/>
+    <sheet name="FImW single Jenal Fluo" sheetId="24" r:id="rId3"/>
+    <sheet name="Compare FimWs" sheetId="22" r:id="rId4"/>
+    <sheet name="WTs Jenal Persat" sheetId="21" r:id="rId5"/>
+    <sheet name="All fliC" sheetId="20" r:id="rId6"/>
+    <sheet name="G- GH- chpA- cpdA-" sheetId="19" r:id="rId7"/>
+    <sheet name="FimX HDE" sheetId="18" r:id="rId8"/>
+    <sheet name="mNG_PilH_D52E" sheetId="17" r:id="rId9"/>
+    <sheet name="chpA- vs pilG-" sheetId="16" r:id="rId10"/>
+    <sheet name="CheA_mNG D52E" sheetId="15" r:id="rId11"/>
+    <sheet name="Alternative_Input (5)" sheetId="14" r:id="rId12"/>
+    <sheet name="Alternative_Input (4)" sheetId="13" r:id="rId13"/>
+    <sheet name="Alternative_Input (3)" sheetId="12" r:id="rId14"/>
+    <sheet name="Alternative_Input (osc FimX ma)" sheetId="11" r:id="rId15"/>
+    <sheet name="Alternative_Input (2)" sheetId="10" r:id="rId16"/>
+    <sheet name="Alternative_Input (FimX FimW)" sheetId="9" r:id="rId17"/>
+    <sheet name="Alternative_Input (FimX osc)" sheetId="8" r:id="rId18"/>
+    <sheet name="Alternative_Input ALL mNG-PilG" sheetId="7" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="38">
   <si>
     <t>923 fliC- mNG_PilG</t>
   </si>
@@ -142,6 +143,15 @@
   </si>
   <si>
     <t>1638 mNG_FimW pch-</t>
+  </si>
+  <si>
+    <t>5s interval-3h37</t>
+  </si>
+  <si>
+    <t>1633 mNG_FimW FimX_mScI cpdA- pch-</t>
+  </si>
+  <si>
+    <t>1632 mNG_FimW FimX_mScI cpdA-</t>
   </si>
 </sst>
 </file>
@@ -990,11 +1000,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04DCF00-92F5-4BE4-99BB-9BA50807F601}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="34.4609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.84375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="4">
+        <v>20220726</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="4">
+        <v>20220728</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="4">
+        <v>20220729</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="4">
+        <v>20220804</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="4">
+        <v>20220727</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="4">
+        <v>20220728</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="4">
+        <v>20220729</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="4">
+        <v>20220727</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="4">
+        <v>20220728</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4">
+        <v>20220729</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFEA5D7-6273-489B-80C7-6141521EE06B}">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1006,21 +1146,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B1" s="4">
-        <v>20220726</v>
+        <v>20211013</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4">
-        <v>20220804</v>
+        <v>20210716</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1028,10 +1168,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4">
-        <v>20220726</v>
+        <v>20210721</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -1039,10 +1179,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B4" s="4">
-        <v>20220804</v>
+        <v>20210721</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -1050,10 +1190,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B5" s="4">
-        <v>20220726</v>
+        <v>20210727</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -1061,25 +1201,121 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B6" s="4">
-        <v>20220728</v>
+        <v>20210727</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="4">
-        <v>20220729</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19"/>
+      <c r="B19" s="4"/>
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20"/>
+      <c r="B20" s="4"/>
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21"/>
+      <c r="B21" s="4"/>
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22"/>
+      <c r="B22" s="4"/>
+      <c r="C22"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23"/>
+      <c r="B23" s="4"/>
+      <c r="C23"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24"/>
+      <c r="B24" s="4"/>
+      <c r="C24"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25"/>
+      <c r="B25" s="4"/>
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26"/>
+      <c r="B26" s="4"/>
+      <c r="C26"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27"/>
+      <c r="B27" s="4"/>
+      <c r="C27"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28"/>
+      <c r="B28" s="4"/>
+      <c r="C28"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29"/>
+      <c r="B29" s="4"/>
+      <c r="C29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1087,7 +1323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79144628-DE4A-49A5-B624-B5F2FCCFC346}">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -1240,7 +1476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD72AB7-3E5C-430B-853E-1C7998E1824C}">
   <dimension ref="A1:C31"/>
   <sheetViews>
@@ -1603,7 +1839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A3BCB8-B388-4F13-ADC2-E443C44CD6AB}">
   <dimension ref="A1:C30"/>
   <sheetViews>
@@ -1895,7 +2131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B9A4B9-8D2E-4D45-9ED6-50B3A6A83910}">
   <dimension ref="A1:C30"/>
   <sheetViews>
@@ -2077,7 +2313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065D6EE3-D996-4F5E-A170-6B08BFBF8305}">
   <dimension ref="A1:C30"/>
   <sheetViews>
@@ -2429,7 +2665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7C2ABD-3B89-4914-B003-977369AA881D}">
   <dimension ref="A1:C30"/>
   <sheetViews>
@@ -2781,7 +3017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9986E60-FC9F-4228-B6F7-F912BCD1B551}">
   <dimension ref="A1:C29"/>
   <sheetViews>
@@ -2954,7 +3190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48FA2BD-3F18-4AC9-B79B-D343837B5E2D}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -3152,7 +3388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3780089A-3929-41A5-8799-261F1091CD93}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -3285,11 +3521,165 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E5925C-59BE-4746-A2F1-7DF2FD84476F}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4FC7B92-B936-4E24-B9B6-A5AB13F69F08}">
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="34.4609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.84375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="4">
+        <v>20220726</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="4">
+        <v>20220728</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="4">
+        <v>20220729</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="4">
+        <v>20220804</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="4">
+        <v>20220726</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="4">
+        <v>20220729</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="4">
+        <v>20220727</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="4">
+        <v>20220728</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="4">
+        <v>20220729</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4">
+        <v>20220727</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="4">
+        <v>20220728</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="4">
+        <v>20220729</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960007D1-80F8-455B-8B98-13347D41846B}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3308,33 +3698,74 @@
         <v>20220726</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2"/>
-      <c r="B2" s="4"/>
-      <c r="C2"/>
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="4">
+        <v>20220804</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3"/>
-      <c r="B3" s="4"/>
-      <c r="C3"/>
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="4">
+        <v>20220726</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4"/>
-      <c r="B4" s="4"/>
-      <c r="C4"/>
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="4">
+        <v>20220804</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5"/>
-      <c r="B5" s="4"/>
-      <c r="C5"/>
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="4">
+        <v>20220726</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6"/>
-      <c r="B6" s="4"/>
-      <c r="C6"/>
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="4">
+        <v>20220728</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="4">
+        <v>20220729</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3342,7 +3773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E79CF4B-48F1-4F7D-97E2-09D77EAEEA3F}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -3411,7 +3842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA7127D-5067-4D06-99FF-A07762B7CF33}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -3480,7 +3911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E72D4B-E935-418C-9DE3-A7859F76A101}">
   <dimension ref="A1:C36"/>
   <sheetViews>
@@ -3844,7 +4275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E58939D-4D24-4A31-B507-5B0419D37D8F}">
   <dimension ref="A1:C36"/>
   <sheetViews>
@@ -4232,7 +4663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D863D082-A1C1-4D0C-877A-1AA6280832AA}">
   <dimension ref="A1:C40"/>
   <sheetViews>
@@ -4694,7 +5125,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F15E32-8E65-4DE5-ACAA-2E5056FF4EC6}">
   <dimension ref="A1:C29"/>
   <sheetViews>
@@ -4884,197 +5315,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFEA5D7-6273-489B-80C7-6141521EE06B}">
-  <dimension ref="A1:C29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="29.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.84375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="4">
-        <v>20211013</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="4">
-        <v>20210716</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="4">
-        <v>20210721</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="4">
-        <v>20210721</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="4">
-        <v>20210727</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="4">
-        <v>20210727</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="2"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="2"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19"/>
-      <c r="B19" s="4"/>
-      <c r="C19"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20"/>
-      <c r="B20" s="4"/>
-      <c r="C20"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21"/>
-      <c r="B21" s="4"/>
-      <c r="C21"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22"/>
-      <c r="B22" s="4"/>
-      <c r="C22"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23"/>
-      <c r="B23" s="4"/>
-      <c r="C23"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24"/>
-      <c r="B24" s="4"/>
-      <c r="C24"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25"/>
-      <c r="B25" s="4"/>
-      <c r="C25"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26"/>
-      <c r="B26" s="4"/>
-      <c r="C26"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27"/>
-      <c r="B27" s="4"/>
-      <c r="C27"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28"/>
-      <c r="B28" s="4"/>
-      <c r="C28"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29"/>
-      <c r="B29" s="4"/>
-      <c r="C29"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/graph_plotting/Data_Input_Graph_Plotting.xlsx
+++ b/graph_plotting/Data_Input_Graph_Plotting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkuehn\git\bs_Twitch\graph_plotting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12130F42-ADB6-4569-B539-DD58452E8727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB4A6A7-B75E-4098-A09B-D480637F40E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4671" yWindow="1594" windowWidth="24686" windowHeight="14735" tabRatio="947" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="38">
   <si>
     <t>923 fliC- mNG_PilG</t>
   </si>
@@ -1003,7 +1003,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1016,7 +1016,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" s="4">
         <v>20220726</v>
@@ -1027,10 +1027,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" s="4">
-        <v>20220728</v>
+        <v>20220804</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1038,10 +1038,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B3" s="4">
-        <v>20220729</v>
+        <v>20220726</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4">
         <v>20220804</v>
@@ -1060,10 +1060,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" s="4">
-        <v>20220727</v>
+        <v>20220726</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B6" s="4">
         <v>20220728</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B7" s="4">
         <v>20220729</v>
@@ -1092,37 +1092,19 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="4">
-        <v>20220727</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
+      <c r="A8"/>
+      <c r="B8" s="4"/>
+      <c r="C8"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="4">
-        <v>20220728</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
+      <c r="A9"/>
+      <c r="B9" s="4"/>
+      <c r="C9"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="4">
-        <v>20220729</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
+      <c r="A10"/>
+      <c r="B10" s="4"/>
+      <c r="C10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3679,7 +3661,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/graph_plotting/Data_Input_Graph_Plotting.xlsx
+++ b/graph_plotting/Data_Input_Graph_Plotting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkuehn\git\bs_Twitch\graph_plotting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB4A6A7-B75E-4098-A09B-D480637F40E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4F673A-D8A4-431A-AB46-7C4E221854B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4671" yWindow="1594" windowWidth="24686" windowHeight="14735" tabRatio="947" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" tabRatio="947" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alternative_Input" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="38">
   <si>
     <t>923 fliC- mNG_PilG</t>
   </si>
@@ -1003,7 +1003,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A5" sqref="A5:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1016,7 +1016,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="4">
         <v>20220726</v>
@@ -1027,10 +1027,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="4">
-        <v>20220804</v>
+        <v>20220728</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1038,10 +1038,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" s="4">
-        <v>20220726</v>
+        <v>20220729</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="4">
         <v>20220804</v>
@@ -1060,10 +1060,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B5" s="4">
-        <v>20220726</v>
+        <v>20220727</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B6" s="4">
         <v>20220728</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B7" s="4">
         <v>20220729</v>
@@ -1092,19 +1092,37 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8"/>
-      <c r="B8" s="4"/>
-      <c r="C8"/>
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="4">
+        <v>20220727</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9"/>
-      <c r="B9" s="4"/>
-      <c r="C9"/>
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="4">
+        <v>20220728</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10"/>
-      <c r="B10" s="4"/>
-      <c r="C10"/>
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4">
+        <v>20220729</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3507,7 +3525,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/graph_plotting/Data_Input_Graph_Plotting.xlsx
+++ b/graph_plotting/Data_Input_Graph_Plotting.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkuehn\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkuehn\git\bs_Twitch\graph_plotting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377DE47B-D2F8-46B1-87B9-83C58D7AFE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1F176B-69C2-4577-9667-85161B0561A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" tabRatio="947" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" tabRatio="947" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="36">
   <si>
     <t>923 fliC- mNG_PilG</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>1637 mNG_FimX cpdA-</t>
+  </si>
+  <si>
+    <t>5s interval-1p5h37</t>
   </si>
 </sst>
 </file>
@@ -983,10 +986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04DCF00-92F5-4BE4-99BB-9BA50807F601}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -999,113 +1002,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B1" s="4">
-        <v>20220726</v>
+        <v>20220812</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="4">
-        <v>20220728</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A2"/>
+      <c r="B2" s="4"/>
+      <c r="C2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="4">
-        <v>20220729</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="4">
-        <v>20220804</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="4">
-        <v>20220727</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="4">
-        <v>20220728</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="4">
-        <v>20220729</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="4">
-        <v>20220727</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="4">
-        <v>20220728</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="4">
-        <v>20220729</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3"/>
+      <c r="B3" s="4"/>
+      <c r="C3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3382,7 +3296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9986E60-FC9F-4228-B6F7-F912BCD1B551}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12:C13"/>
     </sheetView>
   </sheetViews>

--- a/graph_plotting/Data_Input_Graph_Plotting.xlsx
+++ b/graph_plotting/Data_Input_Graph_Plotting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkuehn\git\bs_Twitch\graph_plotting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1F176B-69C2-4577-9667-85161B0561A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA618D5-23CB-4584-9754-A3C7A96CF0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" tabRatio="947" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="36">
   <si>
     <t>923 fliC- mNG_PilG</t>
   </si>
@@ -986,10 +986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04DCF00-92F5-4BE4-99BB-9BA50807F601}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1005,21 +1005,44 @@
         <v>31</v>
       </c>
       <c r="B1" s="4">
+        <v>20220728</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="4">
+        <v>20220729</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="4">
         <v>20220812</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2"/>
-      <c r="B2" s="4"/>
-      <c r="C2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3"/>
-      <c r="B3" s="4"/>
-      <c r="C3"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="4">
+        <v>20220825</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1264,7 +1287,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="A10" sqref="A10:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/graph_plotting/Data_Input_Graph_Plotting.xlsx
+++ b/graph_plotting/Data_Input_Graph_Plotting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkuehn\git\bs_Twitch\graph_plotting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA618D5-23CB-4584-9754-A3C7A96CF0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52E481F-0326-4B92-83A7-50DE93365F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" tabRatio="947" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="36">
   <si>
     <t>923 fliC- mNG_PilG</t>
   </si>
@@ -137,7 +137,7 @@
     <t>1637 mNG_FimX cpdA-</t>
   </si>
   <si>
-    <t>5s interval-1p5h37</t>
+    <t>2s interval-3h37</t>
   </si>
 </sst>
 </file>
@@ -986,10 +986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04DCF00-92F5-4BE4-99BB-9BA50807F601}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A7" activeCellId="2" sqref="A1:XFD1 A4:XFD5 A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1001,47 +1001,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="4">
-        <v>20220728</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3">
+        <v>20210519</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="4">
-        <v>20220729</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3">
+        <v>20210603</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4">
-        <v>20220812</v>
+        <v>20220825</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="4">
-        <v>20220825</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1134,7 +1123,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD7"/>
+      <selection activeCell="A3" sqref="A3:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1206,16 +1195,37 @@
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4">
+        <v>20220825</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>20220825</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>20220825</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>

--- a/graph_plotting/Data_Input_Graph_Plotting.xlsx
+++ b/graph_plotting/Data_Input_Graph_Plotting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkuehn\git\bs_Twitch\graph_plotting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52E481F-0326-4B92-83A7-50DE93365F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38954B07-696B-4371-873E-8F1FA672C43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" tabRatio="947" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2983" yWindow="2983" windowWidth="24686" windowHeight="14734" tabRatio="947" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="38">
   <si>
     <t>923 fliC- mNG_PilG</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>2s interval-3h37</t>
+  </si>
+  <si>
+    <t>bad?</t>
+  </si>
+  <si>
+    <t>5s interval-1p5h37</t>
   </si>
 </sst>
 </file>
@@ -986,10 +992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04DCF00-92F5-4BE4-99BB-9BA50807F601}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" activeCellId="2" sqref="A1:XFD1 A4:XFD5 A7:XFD7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1001,36 +1007,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="3">
-        <v>20210519</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="4">
+        <v>20220728</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3">
-        <v>20210603</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="4">
+        <v>20220729</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1">
+        <v>20220812</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1">
         <v>20220825</v>
       </c>
-      <c r="C3" t="s">
-        <v>1</v>
+      <c r="C4" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1294,10 +1311,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4FC7B92-B936-4E24-B9B6-A5AB13F69F08}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1308,7 +1325,7 @@
     <col min="4" max="16384" width="8.84375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1319,7 +1336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1330,7 +1347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1341,7 +1358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1352,7 +1369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1363,7 +1380,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1374,7 +1391,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1385,7 +1402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1396,7 +1413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1407,7 +1424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1417,8 +1434,11 @@
       <c r="C10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1429,7 +1449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1437,6 +1457,28 @@
         <v>20220729</v>
       </c>
       <c r="C12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1">
+        <v>20220812</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1">
+        <v>20220825</v>
+      </c>
+      <c r="C14" t="s">
         <v>2</v>
       </c>
     </row>

--- a/graph_plotting/Data_Input_Graph_Plotting.xlsx
+++ b/graph_plotting/Data_Input_Graph_Plotting.xlsx
@@ -8,29 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkuehn\git\bs_Twitch\graph_plotting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38954B07-696B-4371-873E-8F1FA672C43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC70BECB-F695-4571-B9C1-FB6DF5B3610D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2983" yWindow="2983" windowWidth="24686" windowHeight="14734" tabRatio="947" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" tabRatio="947" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="6" r:id="rId1"/>
-    <sheet name="FimWX Jenal double" sheetId="25" r:id="rId2"/>
-    <sheet name="FimWX Jenal single" sheetId="24" r:id="rId3"/>
-    <sheet name="FimWX Jenal PC" sheetId="22" r:id="rId4"/>
-    <sheet name="PilGH rev PC" sheetId="20" r:id="rId5"/>
-    <sheet name="FimX osc" sheetId="18" r:id="rId6"/>
-    <sheet name="PilG" sheetId="7" r:id="rId7"/>
-    <sheet name="PilH" sheetId="17" r:id="rId8"/>
-    <sheet name="FimX" sheetId="9" r:id="rId9"/>
-    <sheet name="FimW" sheetId="26" r:id="rId10"/>
-    <sheet name="CheA" sheetId="15" r:id="rId11"/>
+    <sheet name="ChpB" sheetId="32" r:id="rId2"/>
+    <sheet name="PilG osc" sheetId="27" r:id="rId3"/>
+    <sheet name="FimWX Jenal double" sheetId="25" r:id="rId4"/>
+    <sheet name="FimWX Jenal single" sheetId="24" r:id="rId5"/>
+    <sheet name="FimWX Jenal PC" sheetId="22" r:id="rId6"/>
+    <sheet name="chpB pilK rev PC" sheetId="31" r:id="rId7"/>
+    <sheet name="PilG DAE rev PC" sheetId="28" r:id="rId8"/>
+    <sheet name="PilGH rev PC" sheetId="20" r:id="rId9"/>
+    <sheet name="PilH rev PC" sheetId="29" r:id="rId10"/>
+    <sheet name="PilH DAE rev PC" sheetId="30" r:id="rId11"/>
+    <sheet name="FimX osc" sheetId="18" r:id="rId12"/>
+    <sheet name="PilG" sheetId="7" r:id="rId13"/>
+    <sheet name="PilH" sheetId="17" r:id="rId14"/>
+    <sheet name="FimX" sheetId="9" r:id="rId15"/>
+    <sheet name="FimW" sheetId="26" r:id="rId16"/>
+    <sheet name="CheA" sheetId="15" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="71">
   <si>
     <t>923 fliC- mNG_PilG</t>
   </si>
@@ -145,12 +151,111 @@
   <si>
     <t>5s interval-1p5h37</t>
   </si>
+  <si>
+    <t>1042 fliC- mNG_FimX cpdA- pilG-</t>
+  </si>
+  <si>
+    <t>1022 fliC- mNG_FimX cpdA-</t>
+  </si>
+  <si>
+    <t>1688 fliC- mNG_PilG_D58E chpA-</t>
+  </si>
+  <si>
+    <t>1689 fliC- mNG_PilG_D58A chpA-</t>
+  </si>
+  <si>
+    <t>1691 fliC- mNG_PilG_D58E fimL-</t>
+  </si>
+  <si>
+    <t>1692 fliC- mNG_PilG_D58A fimL-</t>
+  </si>
+  <si>
+    <t>5s interval-0h37</t>
+  </si>
+  <si>
+    <t>1693 fliC- mNG_PilG chpA_AAA fimL-</t>
+  </si>
+  <si>
+    <t>1045 fliC- mNG_PilG fimL-</t>
+  </si>
+  <si>
+    <t>1423 fliC- mNG_PilG chpA-</t>
+  </si>
+  <si>
+    <t>5s interval-70min</t>
+  </si>
+  <si>
+    <t>1727 fliC- mNG_Pil pilA- pilH-</t>
+  </si>
+  <si>
+    <t>10601604 fliC- mNG_PilG pilA-</t>
+  </si>
+  <si>
+    <t>1023 fliC- mNG_PilG PilH_D52A</t>
+  </si>
+  <si>
+    <t>5s interval-1h</t>
+  </si>
+  <si>
+    <t>666 mNG_FimW FimX_mScI cpdA- pch- fliC-</t>
+  </si>
+  <si>
+    <t>1211 fliC- cpdA- pilG_D58A</t>
+  </si>
+  <si>
+    <t>5s interval-2p5h37</t>
+  </si>
+  <si>
+    <t>1171 fliC- cpdA- pilG_D58E</t>
+  </si>
+  <si>
+    <t>969 fliC- mNG_PilG pilH-</t>
+  </si>
+  <si>
+    <t>1542 fliC- mNG_PilG chpA_AAA</t>
+  </si>
+  <si>
+    <t>232 fliC- pilH-</t>
+  </si>
+  <si>
+    <t>TIRF</t>
+  </si>
+  <si>
+    <t>1537 fliC- ChpA-AAA cpdA-</t>
+  </si>
+  <si>
+    <t>1155 fliC- PilH_D52E</t>
+  </si>
+  <si>
+    <t>1172 fliC- PilH_D52A</t>
+  </si>
+  <si>
+    <t>1143 fliC- pilK-</t>
+  </si>
+  <si>
+    <t>1144 fliC- chpB-</t>
+  </si>
+  <si>
+    <t>1185 fliC- pilK- cpdA-</t>
+  </si>
+  <si>
+    <t>1186 fliC- chpB- cpdA-</t>
+  </si>
+  <si>
+    <t>1153 fliC- ChpB_mNG</t>
+  </si>
+  <si>
+    <t>512 mNG_PilG</t>
+  </si>
+  <si>
+    <t>1719 mNG_PilG chpB-</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +386,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -627,7 +738,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -637,6 +748,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -992,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04DCF00-92F5-4BE4-99BB-9BA50807F601}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1008,10 +1133,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="B1" s="4">
-        <v>20220728</v>
+        <v>20210317</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -1019,10 +1144,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="B2" s="4">
-        <v>20220729</v>
+        <v>20210319</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1030,24 +1155,1888 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="1">
-        <v>20220812</v>
+        <v>62</v>
+      </c>
+      <c r="B3" s="4">
+        <v>20210304</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="1">
-        <v>20220825</v>
+        <v>63</v>
+      </c>
+      <c r="B4" s="4">
+        <v>20210304</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="4">
+        <v>20210317</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="4">
+        <v>20210319</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="6">
+        <v>20200916</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="6">
+        <v>20200918</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="6">
+        <v>20200924</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="6">
+        <v>20210114</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>20210115</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>20210120</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="6">
+        <v>20210121</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="6">
+        <v>20210126</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="6">
+        <v>20210128</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="6">
+        <v>20210129</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="16">
+        <v>20210202</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="16">
+        <v>20210203</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="16">
+        <v>20210205</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="16">
+        <v>20210211</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="16">
+        <v>20210212</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="16">
+        <v>20210304</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="16">
+        <v>20210317</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4">
+        <v>20210319</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="4">
+        <v>20210322</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="20">
+        <v>20210518</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="16">
+        <v>20210520</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="16">
+        <v>20210602</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="16">
+        <v>20210603</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="16">
+        <v>20210701</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="16">
+        <v>20210714</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="16">
+        <v>20210726</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="16">
+        <v>202103222</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="6">
+        <v>20200916</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="6">
+        <v>20200918</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="6">
+        <v>20200924</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="6">
+        <v>20210304</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38">
+        <v>20210317</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39">
+        <v>20210319</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="6">
+        <v>20210721</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="6">
+        <v>20210727</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42"/>
+      <c r="B42" s="20"/>
+      <c r="C42"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C43"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C44"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C44">
+    <sortCondition ref="A1:A44"/>
+  </sortState>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5AF8F1-C899-4334-8FDE-5B3FF3E75BA2}">
+  <dimension ref="A1:C59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A1:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="29.3828125" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.84375" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.15234375" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.84375" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="6">
+        <v>20200916</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="6">
+        <v>20200918</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="6">
+        <v>20200924</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="6">
+        <v>20210304</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5">
+        <v>20210317</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6">
+        <v>20210319</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="6">
+        <v>20210721</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="6">
+        <v>20210727</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9"/>
+      <c r="B9" s="6"/>
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10"/>
+      <c r="B10" s="6"/>
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11"/>
+      <c r="B11" s="16"/>
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12"/>
+      <c r="B12" s="16"/>
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13"/>
+      <c r="B13" s="16"/>
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14"/>
+      <c r="B14" s="16"/>
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15"/>
+      <c r="B15" s="16"/>
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16"/>
+      <c r="B16" s="16"/>
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17"/>
+      <c r="B17" s="16"/>
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18"/>
+      <c r="B18" s="4"/>
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19"/>
+      <c r="B19" s="4"/>
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20"/>
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21"/>
+      <c r="B21" s="16"/>
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22"/>
+      <c r="B22" s="16"/>
+      <c r="C22"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23"/>
+      <c r="B23" s="16"/>
+      <c r="C23"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24"/>
+      <c r="B24" s="16"/>
+      <c r="C24"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25"/>
+      <c r="B25" s="16"/>
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26"/>
+      <c r="B26" s="16"/>
+      <c r="C26"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27"/>
+      <c r="B27" s="16"/>
+      <c r="C27"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28"/>
+      <c r="B28" s="16"/>
+      <c r="C28"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29"/>
+      <c r="C29"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30"/>
+      <c r="C30"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31"/>
+      <c r="C31"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32"/>
+      <c r="B32" s="6"/>
+      <c r="C32"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33"/>
+      <c r="B33" s="6"/>
+      <c r="C33"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34"/>
+      <c r="B34" s="6"/>
+      <c r="C34"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35"/>
+      <c r="B35" s="6"/>
+      <c r="C35"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38"/>
+      <c r="B38" s="6"/>
+      <c r="C38"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39"/>
+      <c r="B39" s="6"/>
+      <c r="C39"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40"/>
+      <c r="B40" s="6"/>
+      <c r="C40"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41"/>
+      <c r="B41" s="6"/>
+      <c r="C41"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42"/>
+      <c r="B42" s="16"/>
+      <c r="C42"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43"/>
+      <c r="B43" s="16"/>
+      <c r="C43"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44"/>
+      <c r="B44" s="16"/>
+      <c r="C44"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45"/>
+      <c r="B45" s="16"/>
+      <c r="C45"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46"/>
+      <c r="B46" s="16"/>
+      <c r="C46"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47"/>
+      <c r="B47" s="16"/>
+      <c r="C47"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B48" s="16"/>
+      <c r="C48" s="15"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49"/>
+      <c r="B49" s="4"/>
+      <c r="C49"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A50"/>
+      <c r="B50" s="4"/>
+      <c r="C50"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A51"/>
+      <c r="C51"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A52"/>
+      <c r="B52" s="16"/>
+      <c r="C52"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A53"/>
+      <c r="B53" s="16"/>
+      <c r="C53"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A54"/>
+      <c r="B54" s="16"/>
+      <c r="C54"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A55"/>
+      <c r="B55" s="16"/>
+      <c r="C55"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A56"/>
+      <c r="B56" s="16"/>
+      <c r="C56"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A57" s="15"/>
+      <c r="B57" s="16"/>
+      <c r="C57"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A58" s="15"/>
+      <c r="B58" s="16"/>
+      <c r="C58"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A59" s="15"/>
+      <c r="C59"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11C461A-C8E3-47DB-8FCB-B66A98FC9088}">
+  <dimension ref="A1:C39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="29.3828125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.84375" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.15234375" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.84375" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="4">
+        <v>20210304</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="4">
+        <v>20210304</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="4">
+        <v>20210304</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="4">
+        <v>20210304</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="4">
+        <v>20210304</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4">
+        <v>20210304</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="4">
+        <v>20210304</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="4">
+        <v>20210304</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="4">
+        <v>20210304</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="4">
+        <v>20210304</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="4">
+        <v>20210317</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="4">
+        <v>20210317</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="4">
+        <v>20210317</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="4">
+        <v>20210317</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="4">
+        <v>20210317</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="4">
+        <v>20210317</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="4">
+        <v>20210317</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="4">
+        <v>20210317</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="4">
+        <v>20210317</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="4">
+        <v>20210317</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="4">
+        <v>20210319</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="4">
+        <v>20210319</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="4">
+        <v>20210319</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="4">
+        <v>20210319</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="4">
+        <v>20210319</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="4">
+        <v>20210319</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="4">
+        <v>20210319</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="4">
+        <v>20210319</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="4">
+        <v>20210319</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="4">
+        <v>20210319</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31"/>
+      <c r="B31" s="4"/>
+      <c r="C31"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34"/>
+      <c r="B34" s="4"/>
+      <c r="C34"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37"/>
+      <c r="B37" s="4"/>
+      <c r="C37"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38"/>
+      <c r="B38" s="4"/>
+      <c r="C38"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39" s="15"/>
+      <c r="C39"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C39">
+    <sortCondition ref="B1:B39"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D863D082-A1C1-4D0C-877A-1AA6280832AA}">
+  <dimension ref="A1:D65"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:C65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="29.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.84375" style="1"/>
+    <col min="6" max="6" width="8.84375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.84375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3">
+        <v>20200909</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>20200909</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>20201008</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>20201008</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>20210706</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>20210706</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>20210709</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>20210709</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>20210715</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
+        <v>20210715</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1">
+        <v>20210722</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>20210722</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1">
+        <v>20210728</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1">
+        <v>20210728</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3">
+        <v>20210810</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="3">
+        <v>20210810</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="4">
+        <v>20211029</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="4">
+        <v>20211029</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="4">
+        <v>20211030</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="4">
+        <v>20211030</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="4">
+        <v>20211031</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="4">
+        <v>20211031</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="6">
+        <v>20200908</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="6">
+        <v>20200908</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="6">
+        <v>20201027</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="6">
+        <v>20201027</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>20201029</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>20201029</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="6">
+        <v>20200909</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="6">
+        <v>20200909</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="6">
+        <v>20201008</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="6">
+        <v>20201008</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="3">
+        <v>20210715</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="3">
+        <v>20210715</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="3">
+        <v>20210722</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="3">
+        <v>20210722</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="3">
+        <v>20210706</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="3">
+        <v>20210706</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="3">
+        <v>20210709</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="3">
+        <v>20210709</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="3">
+        <v>20210722</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="3">
+        <v>20210722</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="3">
+        <v>20210715</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" s="3">
+        <v>20210715</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="3">
+        <v>20210722</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" s="3">
+        <v>20210722</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="3">
+        <v>20210810</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="3">
+        <v>20210810</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="4">
+        <v>20211029</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="4">
+        <v>20211029</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="4">
+        <v>20211030</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="4">
+        <v>20211030</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="4">
+        <v>20211031</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="4">
+        <v>20211031</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="1">
+        <v>20200907</v>
+      </c>
+      <c r="C61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" s="1">
+        <v>20200907</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64" s="1">
+        <v>20200907</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" s="1">
+        <v>20200907</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1056,7 +3045,492 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3780089A-3929-41A5-8799-261F1091CD93}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="A1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="29.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.84375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4">
+        <v>20200625</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>20200625</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>20200707</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>20200709</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>20200717</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4">
+        <v>20200818</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4">
+        <v>20200821</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>20201002</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>20201006</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>20201023</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F15E32-8E65-4DE5-ACAA-2E5056FF4EC6}">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="29.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.84375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4">
+        <v>20200717</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4">
+        <v>20200821</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4">
+        <v>20201002</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4">
+        <v>20201006</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4">
+        <v>20201023</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3">
+        <v>20211203</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8"/>
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9"/>
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10"/>
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11"/>
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12"/>
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13"/>
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19"/>
+      <c r="B19" s="4"/>
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20"/>
+      <c r="B20" s="4"/>
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21"/>
+      <c r="B21" s="4"/>
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22"/>
+      <c r="B22" s="4"/>
+      <c r="C22"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23"/>
+      <c r="B23" s="4"/>
+      <c r="C23"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24"/>
+      <c r="B24" s="4"/>
+      <c r="C24"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25"/>
+      <c r="B25" s="4"/>
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26"/>
+      <c r="B26" s="4"/>
+      <c r="C26"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27"/>
+      <c r="B27" s="4"/>
+      <c r="C27"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28"/>
+      <c r="B28" s="4"/>
+      <c r="C28"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29"/>
+      <c r="B29" s="4"/>
+      <c r="C29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9986E60-FC9F-4228-B6F7-F912BCD1B551}">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="29.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.84375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1">
+        <v>20200717</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>20201002</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>20201006</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>20201023</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>20210519</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20210615</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>20210702</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8"/>
+      <c r="B8" s="4"/>
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="4">
+        <v>20210702</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4">
+        <v>20210702</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4">
+        <v>20210702</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="4">
+        <v>20210702</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B28" s="3"/>
+      <c r="C28"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C0059B8-1671-4845-88D0-DFF5D760DF8E}">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -1135,7 +3609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79144628-DE4A-49A5-B624-B5F2FCCFC346}">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -1310,11 +3784,1140 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552F1D22-7228-4AC3-80C6-1032568BE385}">
+  <dimension ref="A1:C68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="34.4609375" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.84375" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.15234375" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.84375" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1">
+        <v>20210526</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="6">
+        <v>20210527</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3">
+        <v>20210526</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="6">
+        <v>20210527</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5">
+        <v>20210729</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6">
+        <v>20210803</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="6">
+        <v>20210915</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8"/>
+      <c r="B8" s="6"/>
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9"/>
+      <c r="B9" s="6"/>
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10"/>
+      <c r="B10" s="6"/>
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11"/>
+      <c r="B11" s="4"/>
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12"/>
+      <c r="B12" s="4"/>
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13"/>
+      <c r="B13" s="4"/>
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14"/>
+      <c r="B14" s="4"/>
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15"/>
+      <c r="B15" s="4"/>
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16"/>
+      <c r="B16" s="4"/>
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17"/>
+      <c r="B17" s="4"/>
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18"/>
+      <c r="B18" s="4"/>
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19"/>
+      <c r="B19" s="4"/>
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21"/>
+      <c r="B21" s="4"/>
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22"/>
+      <c r="B22" s="4"/>
+      <c r="C22"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23"/>
+      <c r="B23" s="4"/>
+      <c r="C23"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24"/>
+      <c r="B24" s="4"/>
+      <c r="C24"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25"/>
+      <c r="B25" s="4"/>
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26"/>
+      <c r="B26" s="4"/>
+      <c r="C26"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27"/>
+      <c r="B27" s="4"/>
+      <c r="C27"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28"/>
+      <c r="B28" s="4"/>
+      <c r="C28"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29"/>
+      <c r="B29" s="4"/>
+      <c r="C29"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30"/>
+      <c r="B30" s="4"/>
+      <c r="C30"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31"/>
+      <c r="B31" s="4"/>
+      <c r="C31"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32"/>
+      <c r="B32" s="4"/>
+      <c r="C32"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33"/>
+      <c r="B33" s="4"/>
+      <c r="C33"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34"/>
+      <c r="B34" s="4"/>
+      <c r="C34"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35"/>
+      <c r="B35" s="4"/>
+      <c r="C35"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36"/>
+      <c r="B36" s="4"/>
+      <c r="C36"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37"/>
+      <c r="B37" s="4"/>
+      <c r="C37"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38"/>
+      <c r="B38" s="4"/>
+      <c r="C38"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39"/>
+      <c r="B39" s="4"/>
+      <c r="C39"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40"/>
+      <c r="B40" s="4"/>
+      <c r="C40"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41"/>
+      <c r="B41" s="4"/>
+      <c r="C41"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42"/>
+      <c r="B42" s="4"/>
+      <c r="C42"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43"/>
+      <c r="B43" s="4"/>
+      <c r="C43"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44"/>
+      <c r="B44" s="4"/>
+      <c r="C44"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45"/>
+      <c r="B45" s="4"/>
+      <c r="C45"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46"/>
+      <c r="B46" s="4"/>
+      <c r="C46"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47"/>
+      <c r="C47"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A48"/>
+      <c r="C48"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49"/>
+      <c r="C49"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A50"/>
+      <c r="B50" s="6"/>
+      <c r="C50"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A51"/>
+      <c r="B51" s="6"/>
+      <c r="C51"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A52"/>
+      <c r="B52" s="6"/>
+      <c r="C52"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A53"/>
+      <c r="B53" s="6"/>
+      <c r="C53"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="C55"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A56"/>
+      <c r="B56" s="6"/>
+      <c r="C56"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A57"/>
+      <c r="B57" s="6"/>
+      <c r="C57"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A58"/>
+      <c r="B58" s="6"/>
+      <c r="C58"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A59"/>
+      <c r="B59" s="6"/>
+      <c r="C59"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A60"/>
+      <c r="B60" s="16"/>
+      <c r="C60"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A61"/>
+      <c r="B61" s="16"/>
+      <c r="C61"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A62"/>
+      <c r="B62" s="16"/>
+      <c r="C62"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A63"/>
+      <c r="B63" s="16"/>
+      <c r="C63"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A64"/>
+      <c r="B64" s="16"/>
+      <c r="C64"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A65"/>
+      <c r="B65" s="16"/>
+      <c r="C65"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A66"/>
+      <c r="C66"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C67"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C68"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98ABE069-75BD-4161-BC41-B6B2CCBA19CD}">
+  <dimension ref="A1:I39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" activeCellId="4" sqref="E1:G2 E8:G9 E3:G4 E10:G13 E17:G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="34.4609375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.84375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.15234375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.84375" style="7"/>
+    <col min="5" max="5" width="25.84375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.84375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.15234375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.84375" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="9">
+        <v>20220929</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="13">
+        <v>20221019</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="9">
+        <v>20220929</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="13">
+        <v>20221019</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="9">
+        <v>20220929</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="13">
+        <v>20221019</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="9">
+        <v>20220929</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="13">
+        <v>20221019</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="9">
+        <v>20220929</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="13">
+        <v>20221019</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="9">
+        <v>20220929</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="13">
+        <v>20221019</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="9">
+        <v>20220929</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="9">
+        <v>20220929</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>20220928</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="9">
+        <v>20220929</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>20220928</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="9">
+        <v>20220929</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="7">
+        <v>20220928</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="9">
+        <v>20220929</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="7">
+        <v>20220928</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="9">
+        <v>20220929</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="7">
+        <v>202209282</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C13" s="8"/>
+      <c r="E13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="7">
+        <v>202209282</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="7">
+        <v>20201023</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="12">
+        <v>20220928</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="7">
+        <v>20201023</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="12">
+        <v>20220928</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="7">
+        <v>20201023</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="4">
+        <v>20201006</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="14">
+        <v>20221103</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="4">
+        <v>20201006</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="14">
+        <v>20221103</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="4">
+        <v>20201006</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="14">
+        <v>20221103</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="4">
+        <v>20201002</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="14">
+        <v>20221103</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="4">
+        <v>20201002</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="14">
+        <v>20221103</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="4">
+        <v>20201002</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="14">
+        <v>20221103</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C23"/>
+      <c r="E23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="14">
+        <v>20221103</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="9">
+        <v>20220929</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="14">
+        <v>20221103</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="9">
+        <v>20220929</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="9">
+        <v>20220929</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="19">
+        <v>20221108</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E27" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="19">
+        <v>20221108</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="11">
+        <v>20220222</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="19">
+        <v>20221108</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="11">
+        <v>20220222</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="19">
+        <v>20221108</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A30" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="11">
+        <v>20220609</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="19">
+        <v>20221108</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="11">
+        <v>20220609</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="19">
+        <v>20221108</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E32" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="19">
+        <v>20221108</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="11">
+        <v>20220106</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="19">
+        <v>20221108</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="11">
+        <v>20220106</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A35" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="11">
+        <v>20220106</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A36" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="11">
+        <v>20220609</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="7">
+        <v>20230111</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A37" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="11">
+        <v>20220609</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="7">
+        <v>20230111</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="7">
+        <v>20230111</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E39" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" s="7">
+        <v>20230111</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4FC7B92-B936-4E24-B9B6-A5AB13F69F08}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1482,18 +5085,128 @@
         <v>2</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="4">
+        <v>20220728</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="4">
+        <v>20220729</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="1">
+        <v>20220812</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="1">
+        <v>20220825</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="16">
+        <v>20221013</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="16">
+        <v>20221013</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="16">
+        <v>20221014</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="16">
+        <v>20221014</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="16">
+        <v>20221024</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="16">
+        <v>20221024</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960007D1-80F8-455B-8B98-13347D41846B}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C13"/>
+      <selection activeCell="A11" sqref="A11:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1629,7 +5342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E79CF4B-48F1-4F7D-97E2-09D77EAEEA3F}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -1742,12 +5455,1156 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B230B8-6F59-4AAD-ACFD-2D487649433A}">
+  <dimension ref="A1:C66"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="34.4609375" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.84375" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.15234375" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.84375" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="6">
+        <v>20200916</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="6">
+        <v>20200918</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="6">
+        <v>20200924</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="6">
+        <v>20210114</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>20210115</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>20210120</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="6">
+        <v>20210121</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="6">
+        <v>20210126</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="6">
+        <v>20210128</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="6">
+        <v>20210129</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="4">
+        <v>20210202</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="4">
+        <v>20210203</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="4">
+        <v>20210205</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="4">
+        <v>20210211</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="4">
+        <v>20210212</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="4">
+        <v>20210304</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="4">
+        <v>20210317</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="4">
+        <v>20210319</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="4">
+        <v>20210322</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>20210518</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="4">
+        <v>20210520</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="4">
+        <v>20210602</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4">
+        <v>20210603</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4">
+        <v>20210701</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="4">
+        <v>20210714</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="4">
+        <v>20210726</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="4">
+        <v>202103222</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="4">
+        <v>20210120</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="4">
+        <v>20210121</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="4">
+        <v>20210126</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="4">
+        <v>20210211</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="4">
+        <v>20210212</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="4">
+        <v>20210714</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="4">
+        <v>20210726</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="4">
+        <v>20210120</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="4">
+        <v>20210121</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="4">
+        <v>20210126</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="4">
+        <v>20210211</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="4">
+        <v>20210212</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="4">
+        <v>20210726</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="4">
+        <v>20210518</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="4">
+        <v>20210520</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="4">
+        <v>20210603</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="4">
+        <v>20210518</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="4">
+        <v>20210520</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" s="4">
+        <v>20210603</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="20">
+        <v>20210727</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="20">
+        <v>20210721</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="20">
+        <v>20210716</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="6">
+        <v>20210701</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="6">
+        <v>20210629</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="6">
+        <v>20210622</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="6">
+        <v>20210617</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54">
+        <v>20210603</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55">
+        <v>20210520</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="6">
+        <v>20210518</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="6">
+        <v>20210319</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="6">
+        <v>20210317</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="6">
+        <v>20210304</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="16">
+        <v>20210205</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="16">
+        <v>20210203</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" s="16">
+        <v>20210129</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="16">
+        <v>20200924</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" s="16">
+        <v>20200918</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" s="16">
+        <v>20200916</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" s="20">
+        <v>20221109</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9634E40C-0852-4258-B687-C779EE5F06C4}">
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="34.4609375" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.84375" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.15234375" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.84375" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="16">
+        <v>20210617</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="16">
+        <v>20210622</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="16">
+        <v>20210629</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="16">
+        <v>20210617</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="16">
+        <v>20210622</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="16">
+        <v>20210629</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="14">
+        <v>20210727</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="14">
+        <v>20210721</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="14">
+        <v>20210716</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="6">
+        <v>20210701</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="6">
+        <v>20210629</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="6">
+        <v>20210622</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="6">
+        <v>20210617</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>20210603</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>20210520</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6">
+        <v>20210518</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="6">
+        <v>20210319</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="6">
+        <v>20210317</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="6">
+        <v>20210304</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="16">
+        <v>20210205</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="16">
+        <v>20210203</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="16">
+        <v>20210129</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="16">
+        <v>20200924</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="16">
+        <v>20200918</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="16">
+        <v>20200916</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="16">
+        <v>20211013</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="4">
+        <v>20210721</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="4">
+        <v>20210727</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="14">
+        <v>20210617</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="16">
+        <v>20210622</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="16">
+        <v>20210629</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="16">
+        <v>20200916</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="16">
+        <v>20200922</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="16">
+        <v>20200929</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E72D4B-E935-418C-9DE3-A7859F76A101}">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1759,77 +6616,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="6">
-        <v>20200916</v>
+      <c r="A1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="16">
+        <v>20210716</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="6">
-        <v>20200918</v>
+      <c r="A2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="16">
+        <v>20210721</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="6">
-        <v>20200924</v>
+      <c r="A3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="20">
+        <v>20210727</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="6">
-        <v>20210114</v>
+      <c r="A4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="20">
+        <v>20221109</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5">
-        <v>20210115</v>
+      <c r="A5" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="20">
+        <v>20221109</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6">
-        <v>20210120</v>
+      <c r="A6" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="20">
+        <v>20220216</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="6">
-        <v>20210121</v>
+      <c r="A7" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="20">
+        <v>20220315</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -1840,7 +6697,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="6">
-        <v>20210126</v>
+        <v>20200916</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -1851,7 +6708,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="6">
-        <v>20210128</v>
+        <v>20200918</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -1862,7 +6719,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="6">
-        <v>20210129</v>
+        <v>20200924</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -1872,8 +6729,8 @@
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="3">
-        <v>20210202</v>
+      <c r="B11" s="6">
+        <v>20210114</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -1883,8 +6740,8 @@
       <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="3">
-        <v>20210203</v>
+      <c r="B12">
+        <v>20210115</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -1894,8 +6751,8 @@
       <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="3">
-        <v>20210205</v>
+      <c r="B13">
+        <v>20210120</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
@@ -1905,8 +6762,8 @@
       <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="3">
-        <v>20210211</v>
+      <c r="B14" s="6">
+        <v>20210121</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -1916,8 +6773,8 @@
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="3">
-        <v>20210212</v>
+      <c r="B15" s="6">
+        <v>20210126</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
@@ -1927,8 +6784,8 @@
       <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="3">
-        <v>20210304</v>
+      <c r="B16" s="6">
+        <v>20210128</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
@@ -1938,8 +6795,8 @@
       <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="3">
-        <v>20210317</v>
+      <c r="B17" s="6">
+        <v>20210129</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -1949,8 +6806,8 @@
       <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="4">
-        <v>20210319</v>
+      <c r="B18" s="16">
+        <v>20210202</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -1960,8 +6817,8 @@
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="4">
-        <v>20210322</v>
+      <c r="B19" s="16">
+        <v>20210203</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -1971,8 +6828,8 @@
       <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="1">
-        <v>20210518</v>
+      <c r="B20" s="16">
+        <v>20210205</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
@@ -1983,7 +6840,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="3">
-        <v>20210520</v>
+        <v>20210211</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
@@ -1994,7 +6851,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3">
-        <v>20210602</v>
+        <v>20210212</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
@@ -2005,7 +6862,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="3">
-        <v>20210603</v>
+        <v>20210304</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
@@ -2016,7 +6873,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>20210701</v>
+        <v>20210317</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
@@ -2026,8 +6883,8 @@
       <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="3">
-        <v>20210714</v>
+      <c r="B25" s="4">
+        <v>20210319</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
@@ -2037,8 +6894,8 @@
       <c r="A26" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="3">
-        <v>20210726</v>
+      <c r="B26" s="4">
+        <v>20210322</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -2048,24 +6905,30 @@
       <c r="A27" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="3">
-        <v>202103222</v>
+      <c r="B27" s="20">
+        <v>20210518</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28"/>
-      <c r="B28" s="3"/>
-      <c r="C28"/>
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="16">
+        <v>20210520</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="1">
-        <v>20210727</v>
+        <v>22</v>
+      </c>
+      <c r="B29" s="16">
+        <v>20210602</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -2073,10 +6936,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="1">
-        <v>20210721</v>
+        <v>22</v>
+      </c>
+      <c r="B30" s="16">
+        <v>20210603</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -2084,10 +6947,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="1">
-        <v>20210716</v>
+        <v>22</v>
+      </c>
+      <c r="B31" s="16">
+        <v>20210701</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
@@ -2095,10 +6958,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="6">
-        <v>20210701</v>
+        <v>22</v>
+      </c>
+      <c r="B32" s="16">
+        <v>20210714</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
@@ -2106,10 +6969,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="6">
-        <v>20210629</v>
+        <v>22</v>
+      </c>
+      <c r="B33" s="16">
+        <v>20210726</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
@@ -2117,21 +6980,21 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="6">
-        <v>20210622</v>
+        <v>22</v>
+      </c>
+      <c r="B34" s="16">
+        <v>202103222</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="6">
-        <v>20210617</v>
+      <c r="A35" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="20">
+        <v>20221109</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -2139,10 +7002,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36">
-        <v>20210603</v>
+        <v>59</v>
+      </c>
+      <c r="B36" s="6">
+        <v>20200916</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -2150,10 +7013,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37">
-        <v>20210520</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="6">
+        <v>20200918</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
@@ -2161,10 +7024,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B38" s="6">
-        <v>20210518</v>
+        <v>20200924</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
@@ -2172,10 +7035,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B39" s="6">
-        <v>20210319</v>
+        <v>20210304</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -2183,9 +7046,9 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" s="6">
+        <v>59</v>
+      </c>
+      <c r="B40">
         <v>20210317</v>
       </c>
       <c r="C40" t="s">
@@ -2194,10 +7057,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" s="6">
-        <v>20210304</v>
+        <v>59</v>
+      </c>
+      <c r="B41">
+        <v>20210319</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -2205,10 +7068,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="3">
-        <v>20210205</v>
+        <v>59</v>
+      </c>
+      <c r="B42" s="6">
+        <v>20210721</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -2216,10 +7079,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" s="3">
-        <v>20210203</v>
+        <v>59</v>
+      </c>
+      <c r="B43" s="6">
+        <v>20210727</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -2229,8 +7092,8 @@
       <c r="A44" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="3">
-        <v>20210129</v>
+      <c r="B44" s="20">
+        <v>20210727</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -2240,8 +7103,8 @@
       <c r="A45" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="3">
-        <v>20200924</v>
+      <c r="B45" s="20">
+        <v>20210721</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -2251,8 +7114,8 @@
       <c r="A46" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="3">
-        <v>20200918</v>
+      <c r="B46" s="20">
+        <v>20210716</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -2262,30 +7125,30 @@
       <c r="A47" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="3">
-        <v>20200916</v>
+      <c r="B47" s="6">
+        <v>20210701</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A48" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="3">
-        <v>20211013</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>1</v>
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="6">
+        <v>20210629</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>21</v>
-      </c>
-      <c r="B49" s="4">
-        <v>20210721</v>
+        <v>14</v>
+      </c>
+      <c r="B49" s="6">
+        <v>20210622</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -2293,10 +7156,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>21</v>
-      </c>
-      <c r="B50" s="4">
-        <v>20210727</v>
+        <v>14</v>
+      </c>
+      <c r="B50" s="6">
+        <v>20210617</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -2304,10 +7167,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>21</v>
-      </c>
-      <c r="B51" s="1">
-        <v>20210617</v>
+        <v>14</v>
+      </c>
+      <c r="B51">
+        <v>20210603</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -2315,10 +7178,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>21</v>
-      </c>
-      <c r="B52" s="3">
-        <v>20210622</v>
+        <v>14</v>
+      </c>
+      <c r="B52">
+        <v>20210520</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
@@ -2326,10 +7189,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>21</v>
-      </c>
-      <c r="B53" s="3">
-        <v>20210629</v>
+        <v>14</v>
+      </c>
+      <c r="B53" s="6">
+        <v>20210518</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -2337,10 +7200,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>21</v>
-      </c>
-      <c r="B54" s="3">
-        <v>20200916</v>
+        <v>14</v>
+      </c>
+      <c r="B54" s="6">
+        <v>20210319</v>
       </c>
       <c r="C54" t="s">
         <v>2</v>
@@ -2348,10 +7211,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>21</v>
-      </c>
-      <c r="B55" s="3">
-        <v>20200922</v>
+        <v>14</v>
+      </c>
+      <c r="B55" s="6">
+        <v>20210317</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
@@ -2359,1174 +7222,239 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>21</v>
-      </c>
-      <c r="B56" s="3">
-        <v>20200929</v>
+        <v>14</v>
+      </c>
+      <c r="B56" s="6">
+        <v>20210304</v>
       </c>
       <c r="C56" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A57" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B57" s="3">
-        <v>20210716</v>
-      </c>
-      <c r="C57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A58" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B58" s="3">
-        <v>20210721</v>
-      </c>
-      <c r="C58" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A59" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B59" s="1">
-        <v>20210727</v>
-      </c>
-      <c r="C59" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D863D082-A1C1-4D0C-877A-1AA6280832AA}">
-  <dimension ref="A1:D59"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:C59"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="29.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.84375" style="1"/>
-    <col min="6" max="6" width="8.84375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.84375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="3">
-        <v>20200909</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3">
-        <v>20200909</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3">
-        <v>20201008</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3">
-        <v>20201008</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3">
-        <v>20210706</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>20210706</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <v>20210709</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3">
-        <v>20210709</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1">
-        <v>20210715</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1">
-        <v>20210715</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1">
-        <v>20210722</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1">
-        <v>20210722</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1">
-        <v>20210728</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1">
-        <v>20210728</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="3">
-        <v>20210810</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="3">
-        <v>20210810</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="4">
-        <v>20211029</v>
-      </c>
-      <c r="C17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="4">
-        <v>20211029</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="4">
-        <v>20211030</v>
-      </c>
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="4">
-        <v>20211030</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="4">
-        <v>20211031</v>
-      </c>
-      <c r="C21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="4">
-        <v>20211031</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="6">
-        <v>20200908</v>
-      </c>
-      <c r="C24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="6">
-        <v>20200908</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="6">
-        <v>20201027</v>
-      </c>
-      <c r="C26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="6">
-        <v>20201027</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28">
-        <v>20201029</v>
-      </c>
-      <c r="C28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29">
-        <v>20201029</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="6">
-        <v>20200909</v>
-      </c>
-      <c r="C31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="6">
-        <v>20200909</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="6">
-        <v>20201008</v>
-      </c>
-      <c r="C33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A34" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="6">
-        <v>20201008</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="3">
-        <v>20210715</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="3">
-        <v>20210715</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="3">
-        <v>20210722</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="3">
-        <v>20210722</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="3">
-        <v>20210706</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" s="3">
-        <v>20210706</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" s="3">
-        <v>20210709</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B43" s="3">
-        <v>20210709</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A44" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44" s="3">
-        <v>20210722</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A45" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45" s="3">
-        <v>20210722</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A47" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B47" s="3">
-        <v>20210715</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A48" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B48" s="3">
-        <v>20210715</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A49" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B49" s="3">
-        <v>20210722</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A50" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B50" s="3">
-        <v>20210722</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" s="3">
-        <v>20210810</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="3">
-        <v>20210810</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54" s="4">
-        <v>20211029</v>
-      </c>
-      <c r="C54" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
-        <v>10</v>
-      </c>
-      <c r="B55" s="4">
-        <v>20211029</v>
-      </c>
-      <c r="C55" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56" s="4">
-        <v>20211030</v>
-      </c>
-      <c r="C56" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" s="4">
-        <v>20211030</v>
+        <v>14</v>
+      </c>
+      <c r="B57" s="3">
+        <v>20210205</v>
       </c>
       <c r="C57" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="4">
-        <v>20211031</v>
+        <v>14</v>
+      </c>
+      <c r="B58" s="3">
+        <v>20210203</v>
       </c>
       <c r="C58" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B59" s="4">
-        <v>20211031</v>
+        <v>14</v>
+      </c>
+      <c r="B59" s="16">
+        <v>20210129</v>
       </c>
       <c r="C59" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="16">
+        <v>20200924</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="16">
+        <v>20200918</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" s="16">
+        <v>20200916</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="20">
+        <v>20221109</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A64" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="16">
+        <v>20211013</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A65" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" s="16">
+        <v>20220201</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A66" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="16">
+        <v>20220202</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A67" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" s="20">
+        <v>20221109</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>21</v>
+      </c>
+      <c r="B68" s="4">
+        <v>20210721</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>21</v>
+      </c>
+      <c r="B69" s="4">
+        <v>20210727</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70" s="20">
+        <v>20210617</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71" s="16">
+        <v>20210622</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" s="16">
+        <v>20210629</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" s="16">
+        <v>20200916</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" s="16">
+        <v>20200922</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75" s="16">
+        <v>20200929</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>21</v>
+      </c>
+      <c r="B76" s="20">
+        <v>20221109</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3780089A-3929-41A5-8799-261F1091CD93}">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="29.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.84375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4">
-        <v>20200625</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
-        <v>20200625</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4">
-        <v>20200707</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4">
-        <v>20200709</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>20200717</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="4">
-        <v>20200818</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="4">
-        <v>20200821</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>20201002</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>20201006</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>20201023</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F15E32-8E65-4DE5-ACAA-2E5056FF4EC6}">
-  <dimension ref="A1:C29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="29.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.84375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="4">
-        <v>20200717</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="4">
-        <v>20200821</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="4">
-        <v>20201002</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="4">
-        <v>20201006</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4">
-        <v>20201023</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="3">
-        <v>20211203</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8"/>
-      <c r="C8"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9"/>
-      <c r="C9"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10"/>
-      <c r="C10"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11"/>
-      <c r="C11"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12"/>
-      <c r="C12"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13"/>
-      <c r="C13"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="2"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="2"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19"/>
-      <c r="B19" s="4"/>
-      <c r="C19"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20"/>
-      <c r="B20" s="4"/>
-      <c r="C20"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21"/>
-      <c r="B21" s="4"/>
-      <c r="C21"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22"/>
-      <c r="B22" s="4"/>
-      <c r="C22"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23"/>
-      <c r="B23" s="4"/>
-      <c r="C23"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24"/>
-      <c r="B24" s="4"/>
-      <c r="C24"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25"/>
-      <c r="B25" s="4"/>
-      <c r="C25"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26"/>
-      <c r="B26" s="4"/>
-      <c r="C26"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27"/>
-      <c r="B27" s="4"/>
-      <c r="C27"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28"/>
-      <c r="B28" s="4"/>
-      <c r="C28"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29"/>
-      <c r="B29" s="4"/>
-      <c r="C29"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9986E60-FC9F-4228-B6F7-F912BCD1B551}">
-  <dimension ref="A1:C29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="29.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.84375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1">
-        <v>20200717</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>20201002</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3">
-        <v>20201006</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3">
-        <v>20201023</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>20210519</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>20210615</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>20210702</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8"/>
-      <c r="B8" s="4"/>
-      <c r="C8"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="4">
-        <v>20210702</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="4">
-        <v>20210702</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="4">
-        <v>20210702</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="4">
-        <v>20210702</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="2"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B28" s="3"/>
-      <c r="C28"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="2"/>
-    </row>
-  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C76">
+    <sortCondition ref="A69:A76"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/graph_plotting/Data_Input_Graph_Plotting.xlsx
+++ b/graph_plotting/Data_Input_Graph_Plotting.xlsx
@@ -1,44 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Gani_sv_WS/git/bs_Twitch/graph_plotting/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\uppersat-raw\Gani_sv_WS\git\bs_Twitch\graph_plotting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F4D810-8210-CA4E-B215-06785A9B968D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9D6B51-835E-4E46-B187-64F5FA15018A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3460" windowWidth="21600" windowHeight="11300" tabRatio="947" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="947" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="14" r:id="rId1"/>
-    <sheet name="20240319" sheetId="25" r:id="rId2"/>
-    <sheet name="20240316" sheetId="26" r:id="rId3"/>
-    <sheet name="20231221" sheetId="24" r:id="rId4"/>
-    <sheet name="20230927" sheetId="23" r:id="rId5"/>
-    <sheet name="20230815" sheetId="22" r:id="rId6"/>
-    <sheet name="20230809" sheetId="21" r:id="rId7"/>
-    <sheet name="20230804" sheetId="20" r:id="rId8"/>
-    <sheet name="20230726" sheetId="19" r:id="rId9"/>
-    <sheet name="20230705" sheetId="18" r:id="rId10"/>
-    <sheet name="20230412" sheetId="16" r:id="rId11"/>
-    <sheet name="20230331" sheetId="15" r:id="rId12"/>
-    <sheet name="Input (2)" sheetId="13" r:id="rId13"/>
-    <sheet name="20230308" sheetId="12" r:id="rId14"/>
-    <sheet name="20230221" sheetId="11" r:id="rId15"/>
-    <sheet name="20230215" sheetId="10" r:id="rId16"/>
-    <sheet name="20230131" sheetId="9" r:id="rId17"/>
-    <sheet name="20230126" sheetId="8" r:id="rId18"/>
-    <sheet name="20230124" sheetId="6" r:id="rId19"/>
+    <sheet name="E11-Y30" sheetId="34" r:id="rId2"/>
+    <sheet name="R36-E55" sheetId="35" r:id="rId3"/>
+    <sheet name="1756_polar_loc_..." sheetId="33" r:id="rId4"/>
+    <sheet name="1756_aligment_motile" sheetId="32" r:id="rId5"/>
+    <sheet name="20241018" sheetId="31" r:id="rId6"/>
+    <sheet name="20241001" sheetId="30" r:id="rId7"/>
+    <sheet name="20240712" sheetId="29" r:id="rId8"/>
+    <sheet name="20240326" sheetId="27" r:id="rId9"/>
+    <sheet name="20240319" sheetId="25" r:id="rId10"/>
+    <sheet name="20240316" sheetId="26" r:id="rId11"/>
+    <sheet name="20231221" sheetId="24" r:id="rId12"/>
+    <sheet name="20231031" sheetId="28" r:id="rId13"/>
+    <sheet name="20230927" sheetId="23" r:id="rId14"/>
+    <sheet name="20230815" sheetId="22" r:id="rId15"/>
+    <sheet name="20230809" sheetId="21" r:id="rId16"/>
+    <sheet name="20230804" sheetId="20" r:id="rId17"/>
+    <sheet name="20230726" sheetId="19" r:id="rId18"/>
+    <sheet name="20230705" sheetId="18" r:id="rId19"/>
+    <sheet name="20230412" sheetId="16" r:id="rId20"/>
+    <sheet name="20230331" sheetId="15" r:id="rId21"/>
+    <sheet name="Input (2)" sheetId="13" r:id="rId22"/>
+    <sheet name="20230308" sheetId="12" r:id="rId23"/>
+    <sheet name="20230221" sheetId="11" r:id="rId24"/>
+    <sheet name="20230215" sheetId="10" r:id="rId25"/>
+    <sheet name="20230131" sheetId="9" r:id="rId26"/>
+    <sheet name="20230126" sheetId="8" r:id="rId27"/>
+    <sheet name="20230124" sheetId="6" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="82">
   <si>
     <t>337 fliC- cpdA-</t>
   </si>
@@ -188,13 +197,109 @@
   </si>
   <si>
     <t>2040 fliC- cyaB- pCuAlgent_mNG_cyaB_d220-416 CuA100</t>
+  </si>
+  <si>
+    <t>195 pilJ-</t>
+  </si>
+  <si>
+    <t>914 WT</t>
+  </si>
+  <si>
+    <t>2293 pilJ Me1</t>
+  </si>
+  <si>
+    <t>2294 pilJ Me2</t>
+  </si>
+  <si>
+    <t>2295 pilJ Me3</t>
+  </si>
+  <si>
+    <t>1791 fliC- cyaB- pilG- pCuAlgent_mNG_cyaB CuA20</t>
+  </si>
+  <si>
+    <t>2151 fliC- cyaB- fimL- pCuAlgent_mNG_cyaB CuA20</t>
+  </si>
+  <si>
+    <t>2152 fliC- cyaB- cpdA- pCuAlgent_mNG_cyaB CuA20</t>
+  </si>
+  <si>
+    <t>2153 fliC- cyaB- fimV- pCuAlgent_mNG_cyaB CuA20</t>
+  </si>
+  <si>
+    <t>1047 fliC- pilA-</t>
+  </si>
+  <si>
+    <t>1178 fliC- pilA_T8V</t>
+  </si>
+  <si>
+    <t>2453 fliC- pilA_E11L</t>
+  </si>
+  <si>
+    <t>2454 fliC- pilA_Y30T</t>
+  </si>
+  <si>
+    <t>2455 fliC- pilA_R36E</t>
+  </si>
+  <si>
+    <t>2456 fliC- pilA_R36N</t>
+  </si>
+  <si>
+    <t>2581 fliC- cyaB- pCuAlgent_mNeonGreen_cyaB_R456L CuA20</t>
+  </si>
+  <si>
+    <t>2583 fliC- cyaB- pilJ- pCuAlgent_mNeonGreen_cyaB_R456L CuA20</t>
+  </si>
+  <si>
+    <t>2584 fliC- cyaB- pilG- pCuAlgent_mNeonGreen_cyaB_R456L CuA20</t>
+  </si>
+  <si>
+    <t>2585 fliC- cyaB- fimL- pCuAlgent_mNeonGreen_cyaB_R456L CuA20</t>
+  </si>
+  <si>
+    <t>2586 fliC- cyaB- chpA- pCuAlgent_mNeonGreen_cyaB_R456L CuA20</t>
+  </si>
+  <si>
+    <t>2634 fliC- pilA_R36A</t>
+  </si>
+  <si>
+    <t>2635 fliC- pilA_E55D</t>
+  </si>
+  <si>
+    <t>2636 fliC- pilA_E55R</t>
+  </si>
+  <si>
+    <t>2637 fliC- pilA_E55A</t>
+  </si>
+  <si>
+    <t>2638 fliC- pilA_A75G</t>
+  </si>
+  <si>
+    <t>2639 fliC-</t>
+  </si>
+  <si>
+    <t>2640 fliC- pilA-</t>
+  </si>
+  <si>
+    <t>2641 fliC- pilA_P22V</t>
+  </si>
+  <si>
+    <t>2642 fliC- pilA_P22K</t>
+  </si>
+  <si>
+    <t>2643 fliC- pilA_P22N</t>
+  </si>
+  <si>
+    <t>2644 fliC- pilA_P22G</t>
+  </si>
+  <si>
+    <t>2645 fliC- pilA_P22T</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,6 +445,13 @@
       <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -684,8 +796,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1042,84 +1159,107 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E0EED4E-4EF9-E44F-9190-92FF4E438078}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="55.1640625" customWidth="1"/>
+    <col min="1" max="1" width="55.1796875" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1">
-        <v>20240316</v>
+        <v>75</v>
+      </c>
+      <c r="B1" s="3">
+        <v>20240111</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2">
-        <v>20240316</v>
+        <v>76</v>
+      </c>
+      <c r="B2" s="3">
+        <v>20240111</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3">
-        <v>20240316</v>
+        <v>77</v>
+      </c>
+      <c r="B3" s="3">
+        <v>20240111</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4">
-        <v>20240316</v>
+        <v>78</v>
+      </c>
+      <c r="B4" s="3">
+        <v>20240111</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5">
-        <v>20240316</v>
+        <v>79</v>
+      </c>
+      <c r="B5" s="3">
+        <v>20240111</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6">
-        <v>20240316</v>
+        <v>80</v>
+      </c>
+      <c r="B6" s="3">
+        <v>20240111</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="3">
+        <v>20240111</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1128,74 +1268,106 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9BD7BC-0E1B-6B4C-AC76-0FB0344A9C4F}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DFAA1B5-9537-4343-9F58-1BD92DF7B840}">
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C5"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="55.1640625" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.1796875" customWidth="1"/>
+    <col min="2" max="2" width="31.1796875" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B1">
-        <v>20230705</v>
+        <v>20240319</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B2">
-        <v>20230705</v>
+        <v>20240319</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B3">
-        <v>20230705</v>
+        <v>20240319</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B4">
-        <v>20230705</v>
+        <v>20240319</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B5">
-        <v>20230705</v>
+        <v>20240319</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6">
+        <v>20240319</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8">
+        <v>20240319</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>20240319</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1205,6 +1377,757 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E601F92-6B5D-405D-AE28-C844B1345713}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="58.1796875" customWidth="1"/>
+    <col min="2" max="2" width="31.1796875" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1">
+        <v>20240316</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>20240316</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>20240316</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4">
+        <v>20240316</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>20240316</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6">
+        <v>20240316</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{792CEF96-97CA-174C-B1A9-692EE5E33AAA}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="55.1796875" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1">
+        <v>20231221</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2">
+        <v>20231221</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>20231221</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>20231221</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5">
+        <v>20231221</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6">
+        <v>20231221</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4252B1B7-69E7-254A-8BFF-338BA6F45408}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="55.1796875" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1">
+        <v>20231031</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2">
+        <v>20231031</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3">
+        <v>20231031</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4">
+        <v>20231031</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5">
+        <v>20231031</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1920CA0-033E-E148-ACE7-E83C36D9DFB1}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="55.1796875" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1">
+        <v>20230927</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>20230927</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>20230927</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>20230927</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CB6C80-88B9-A94B-838A-74D7260959A7}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="55.1796875" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1">
+        <v>20230815</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>20230815</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>20230815</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>20230815</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>20230815</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341DC28C-8684-894E-9D26-D8E42650F415}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="55.1796875" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1">
+        <v>20230809</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>20230809</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>20230809</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>20230809</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>20230809</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195584B6-782F-044E-B7FB-A409E769EEB4}">
+  <sheetPr codeName="Sheet13"/>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="55.1796875" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1">
+        <v>20230804</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>20230804</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>20230804</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>20230804</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>20230804</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB3111B-4C47-0C43-9972-CBA48C6C631C}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="55.1796875" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1">
+        <v>20230726</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>20230726</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>20230726</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>20230726</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9BD7BC-0E1B-6B4C-AC76-0FB0344A9C4F}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="55.1796875" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1">
+        <v>20230705</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>20230705</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>20230705</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>20230705</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>20230705</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16C51F3-F010-594B-A1A3-E701EA173650}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="29.36328125" customWidth="1"/>
+    <col min="2" max="2" width="34.36328125" customWidth="1"/>
+    <col min="3" max="3" width="38.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>20240712</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2">
+        <v>20240712</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3">
+        <v>20240712</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4">
+        <v>20240712</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919DC609-BF27-B845-BEF1-1B5AE74FB7B3}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C6"/>
@@ -1213,14 +2136,14 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="55.1640625" customWidth="1"/>
+    <col min="1" max="1" width="55.1796875" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1231,7 +2154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1242,7 +2165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1253,7 +2176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1264,7 +2187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1275,7 +2198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1292,7 +2215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C5F1EC-76A0-E949-831E-FE89BC0482E6}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C7"/>
@@ -1301,14 +2224,14 @@
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="55.1640625" customWidth="1"/>
+    <col min="1" max="1" width="55.1796875" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1319,7 +2242,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1330,7 +2253,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1341,7 +2264,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1352,7 +2275,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1363,7 +2286,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1374,7 +2297,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1391,7 +2314,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A6EC70-7E75-504A-9D31-3FA66EE952EF}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:C7"/>
@@ -1400,14 +2323,14 @@
       <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="43.5" customWidth="1"/>
+    <col min="1" max="1" width="43.453125" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1418,7 +2341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1429,7 +2352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1440,7 +2363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1451,7 +2374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1462,7 +2385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1473,7 +2396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1490,23 +2413,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306C4CB8-E860-A840-A3CC-464A1CD485A0}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" activeCellId="1" sqref="A1:XFD1 A7:XFD7"/>
+      <selection activeCell="A7" sqref="A1:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1517,7 +2440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1528,7 +2451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1539,7 +2462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1550,7 +2473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1561,7 +2484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1572,7 +2495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1583,7 +2506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1594,7 +2517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1611,7 +2534,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4070B3C-2AC4-E544-9EB9-4A535126637B}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:C4"/>
@@ -1620,14 +2543,14 @@
       <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1638,7 +2561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1649,7 +2572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1660,7 +2583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1677,7 +2600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5638A6-7A8C-0846-8ABE-347D797C8A91}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:C4"/>
@@ -1686,14 +2609,14 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="40.5" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1704,7 +2627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1715,7 +2638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1726,7 +2649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1743,23 +2666,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55DEC38-7E4E-5447-B248-60F3F2515458}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1770,7 +2693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1781,7 +2704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1792,7 +2715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1810,7 +2733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129107E1-0C53-A946-9F6A-2EEE8C0D0BC6}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:C4"/>
@@ -1819,14 +2742,14 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1837,7 +2760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1848,7 +2771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1859,7 +2782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1877,7 +2800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04DCF00-92F5-4BE4-99BB-9BA50807F601}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:C4"/>
@@ -1886,14 +2809,14 @@
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1904,7 +2827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1915,7 +2838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1926,7 +2849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1947,280 +2870,247 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DFAA1B5-9537-4343-9F58-1BD92DF7B840}">
-  <dimension ref="A1:C9"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD918342-64EF-D142-9959-ADDBF54A1DF1}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection sqref="A1:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="58.1640625" customWidth="1"/>
-    <col min="2" max="2" width="31.1640625" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.36328125" customWidth="1"/>
+    <col min="3" max="3" width="27.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="B1">
-        <v>20240319</v>
+        <v>20240712</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B2">
-        <v>20240319</v>
+        <v>20240712</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B3">
-        <v>20240319</v>
+        <v>20240712</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B4">
-        <v>20240319</v>
+        <v>20240712</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>20240319</v>
+        <v>20241018</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B6">
-        <v>20240319</v>
+        <v>20241018</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>44</v>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7">
+        <v>20241018</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B8">
-        <v>20240319</v>
+        <v>20241018</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>45</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B9">
-        <v>20240319</v>
+        <v>20241018</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10">
+        <v>20241018</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E601F92-6B5D-405D-AE28-C844B1345713}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="58.1640625" customWidth="1"/>
-    <col min="2" max="2" width="31.1640625" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1">
-        <v>20240316</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2">
-        <v>20240316</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3">
-        <v>20240316</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4">
-        <v>20240316</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5">
-        <v>20240316</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6">
-        <v>20240316</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{792CEF96-97CA-174C-B1A9-692EE5E33AAA}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E409BA2-3E60-E045-874F-CF75FFB71531}">
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="55.1640625" customWidth="1"/>
+    <col min="1" max="1" width="55.1796875" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
       <c r="B1">
+        <v>20230705</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>20230726</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2">
+        <v>20230809</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2">
+        <v>20230815</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2">
         <v>20231221</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2">
-        <v>20231221</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3">
-        <v>20231221</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4">
-        <v>20231221</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5">
-        <v>20231221</v>
-      </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6">
-        <v>20231221</v>
+        <v>24</v>
+      </c>
+      <c r="B6" s="2">
+        <v>20241001</v>
       </c>
       <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2">
+        <v>20241002</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2">
+        <v>20241011</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2">
+        <v>20241015</v>
+      </c>
+      <c r="C9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2231,61 +3121,160 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1920CA0-033E-E148-ACE7-E83C36D9DFB1}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D017E8-5245-1D42-9CC8-E36077F9D141}">
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="55.1640625" customWidth="1"/>
+    <col min="1" max="1" width="55.1796875" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
       <c r="B1">
+        <v>20230705</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>20230726</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2">
+        <v>20230804</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2">
+        <v>20230809</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2">
+        <v>20230815</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2">
         <v>20230927</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2">
-        <v>20230927</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3">
-        <v>20230927</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4">
-        <v>20230927</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2">
+        <v>20231031</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2">
+        <v>20231221</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2">
+        <v>20240316</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2">
+        <v>20241001</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2">
+        <v>20241002</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2">
+        <v>20241011</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2">
+        <v>20241015</v>
+      </c>
+      <c r="C13" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2296,72 +3285,94 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CB6C80-88B9-A94B-838A-74D7260959A7}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36A8797-7ED4-2543-B80E-0FF4E606D91B}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="55.1640625" customWidth="1"/>
+    <col min="1" max="1" width="55.1796875" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B1">
-        <v>20230815</v>
+        <v>20241018</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B2">
-        <v>20230815</v>
+        <v>20241018</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>36</v>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B3">
-        <v>20230815</v>
+        <v>20241018</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>37</v>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B4">
-        <v>20230815</v>
+        <v>20241018</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>38</v>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B5">
-        <v>20230815</v>
+        <v>20241018</v>
       </c>
       <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6">
+        <v>20241018</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7">
+        <v>20241018</v>
+      </c>
+      <c r="C7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2372,72 +3383,83 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341DC28C-8684-894E-9D26-D8E42650F415}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6C3266-7F23-D04E-BE9E-AF57408C880F}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="55.1640625" customWidth="1"/>
+    <col min="1" max="1" width="55.1796875" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
       <c r="B1">
-        <v>20230809</v>
+        <v>20241001</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B2">
-        <v>20230809</v>
+        <v>20241001</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="B3">
-        <v>20230809</v>
+        <v>20241001</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B4">
-        <v>20230809</v>
+        <v>20241001</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="B5">
-        <v>20230809</v>
+        <v>20241001</v>
       </c>
       <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6">
+        <v>20241001</v>
+      </c>
+      <c r="C6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2448,73 +3470,94 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195584B6-782F-044E-B7FB-A409E769EEB4}">
-  <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6607D4F-1AD7-FB42-BD26-552E4E9C0439}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A7" activeCellId="1" sqref="A1:C2 A6:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="55.1640625" customWidth="1"/>
+    <col min="1" max="1" width="55.1796875" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B1">
-        <v>20230804</v>
+        <v>20240712</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B2">
-        <v>20230804</v>
+        <v>20240712</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B3">
-        <v>20230804</v>
+        <v>20240712</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B4">
-        <v>20230804</v>
+        <v>20240712</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="B5">
-        <v>20230804</v>
+        <v>20240712</v>
       </c>
       <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6">
+        <v>20240712</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7">
+        <v>20240712</v>
+      </c>
+      <c r="C7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2525,63 +3568,106 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB3111B-4C47-0C43-9972-CBA48C6C631C}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B81BB28-9E48-D846-A25B-736101622554}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C4"/>
+      <selection activeCell="A3" sqref="A3:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="55.1640625" customWidth="1"/>
+    <col min="1" max="1" width="55.1796875" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B1">
-        <v>20230726</v>
+        <v>20240326</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B2">
-        <v>20230726</v>
+        <v>20240326</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B3">
-        <v>20230726</v>
+        <v>20240326</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B4">
-        <v>20230726</v>
+        <v>20240326</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5">
+        <v>20240326</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6">
+        <v>20240326</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7">
+        <v>20240326</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8">
+        <v>20240326</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
